--- a/biology/Zoologie/Chiasmocleis_mantiqueira/Chiasmocleis_mantiqueira.xlsx
+++ b/biology/Zoologie/Chiasmocleis_mantiqueira/Chiasmocleis_mantiqueira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis mantiqueira est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis mantiqueira est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la serra da Mantiqueira dans l'État du Minas Gerais au Brésil. Elle se rencontre vers 1 230 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la serra da Mantiqueira dans l'État du Minas Gerais au Brésil. Elle se rencontre vers 1 230 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis mantiqueira mesure de 15 à 18 mm pour les mâles et de 20 à 23 mm pour les femelles. Son dos est brun rougeâtre sombre avec des points blancs répartis irrégulièrement et présente une ligne longitudinale blanche. Son ventre est blanc avec des taches irrégulières brunes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis mantiqueira mesure de 15 à 18 mm pour les mâles et de 20 à 23 mm pour les femelles. Son dos est brun rougeâtre sombre avec des points blancs répartis irrégulièrement et présente une ligne longitudinale blanche. Son ventre est blanc avec des taches irrégulières brunes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, mantiqueira, lui a été donné en référence à la serra da Mantiqueira où elle a été découverte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, mantiqueira, lui a été donné en référence à la serra da Mantiqueira où elle a été découverte.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cruz, Feio &amp; Cassini, 2007 : Nova Espécie de Chiasmocleis Méhelÿ, 1904 (Amphibia, Anura, Microhylidae) da Serra da Mantiqueira, Estado de Minas Gerais, Brasil. Arquivos do Museu Nacional, Rio de Janeiro, vol. 65, no 1, p. 33-38 (texte intégral).</t>
         </is>
